--- a/demo_webservice.xlsx
+++ b/demo_webservice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\yg-sh-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{170032E9-3EA0-4F84-92FC-54756FE86B81}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6D3FAD76-8064-4F44-95F8-DE92D46EC92D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16176" windowHeight="5928" xr2:uid="{533334E1-BCDD-4AE2-9870-D2928F68ACD1}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -206,145 +203,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="封面"/>
-      <sheetName val="模型框架"/>
-      <sheetName val="修改记录"/>
-      <sheetName val="=&gt;第一部分"/>
-      <sheetName val="多维联动分析"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="经济活动分析"/>
-      <sheetName val="动因指标对成果指标影响分析"/>
-      <sheetName val="动态展示"/>
-      <sheetName val="发送请求"/>
-      <sheetName val="关键业绩指标滚动预判"/>
-      <sheetName val="动因指标和成果指标内部影响分析"/>
-      <sheetName val="核价与实际情况对比分析"/>
-      <sheetName val="投资能力规划"/>
-      <sheetName val="敏感性分析"/>
-      <sheetName val="=&gt;预算管理、风险监控"/>
-      <sheetName val="损益预算完成情况"/>
-      <sheetName val="资产负债预算完成情况"/>
-      <sheetName val="净资产收益率完成情况"/>
-      <sheetName val="预算完成风险预警"/>
-      <sheetName val="购售电分析"/>
-      <sheetName val="购售电分析图表"/>
-      <sheetName val="税金预测"/>
-      <sheetName val="=&gt;第二部分"/>
-      <sheetName val="=&gt;数据输入区"/>
-      <sheetName val="长期债务表"/>
-      <sheetName val="假设"/>
-      <sheetName val="固定资产结构及折旧参数"/>
-      <sheetName val="发展投入"/>
-      <sheetName val="输配电价测算参数"/>
-      <sheetName val="投资与电量关系测算数据"/>
-      <sheetName val="=&gt;分析测算区"/>
-      <sheetName val="=&gt;结果输出区"/>
-      <sheetName val="输配电价测算模型"/>
-      <sheetName val="损益表"/>
-      <sheetName val="资产负债表"/>
-      <sheetName val="现金流量表"/>
-      <sheetName val="主要评级指标表"/>
-      <sheetName val="主要经济指标表"/>
-      <sheetName val="国资委考核指标"/>
-      <sheetName val="变动统计"/>
-      <sheetName val="变动统计2"/>
-      <sheetName val="=&gt;测算过程区"/>
-      <sheetName val="准许收入假设"/>
-      <sheetName val="实际情况下输配电价Ⅰ"/>
-      <sheetName val="电量电价"/>
-      <sheetName val="实际收入"/>
-      <sheetName val="固定资产"/>
-      <sheetName val="债务"/>
-      <sheetName val="现金缺口测算"/>
-      <sheetName val="=&gt;历史数据区"/>
-      <sheetName val="历史资产负债表"/>
-      <sheetName val="历史利润表"/>
-      <sheetName val="历史现金流量表"/>
-      <sheetName val="关键参数底稿"/>
-      <sheetName val="历史发展投入"/>
-      <sheetName val="=&gt;明细信息区"/>
-      <sheetName val="17分部"/>
-      <sheetName val="17成本"/>
-      <sheetName val="16分部"/>
-      <sheetName val="16成本"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>http://127.0.0.1:8089/api/cell?G3=-548.484152231271</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -646,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396FD719-E028-479F-881F-6B7980B34B31}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -882,13 +740,13 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="b">
-        <f>[1]发送请求!$B$3=CONCATENATE("http://127.0.0.1:8089/api/cell?A1=",Sheet2!A1)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="e">
+      <c r="C4" s="1" t="str">
+        <f>CONCATENATE("http://127.0.0.1:8089/api/cell?A1=",Sheet2!A1)</f>
+        <v>http://127.0.0.1:8089/api/cell?A1=我是sheet2表单A1单元格的内容</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>_xlfn.WEBSERVICE(C4)</f>
-        <v>#VALUE!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
